--- a/Output/Classifier Fitting/XGBoost/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/XGBoost/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.83126231431961</v>
+        <v>88.3571818669637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005802309231104382</v>
+        <v>0.01471883755904776</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8555727171801276</v>
+        <v>0.8604021648626144</v>
       </c>
     </row>
   </sheetData>
